--- a/ANS-VECBEE/result/vecbee-ans.xlsx
+++ b/ANS-VECBEE/result/vecbee-ans.xlsx
@@ -14,18 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Circuit</t>
   </si>
   <si>
-    <t>Av. literal ratio</t>
-  </si>
-  <si>
-    <t>Av. area ratio</t>
-  </si>
-  <si>
-    <t>Av. delay ratio</t>
+    <t>Average literal ratio</t>
+  </si>
+  <si>
+    <t>Average area ratio</t>
+  </si>
+  <si>
+    <t>Average delay ratio</t>
   </si>
   <si>
     <t>Av. time/s</t>
@@ -34,10 +34,7 @@
     <t>ANS</t>
   </si>
   <si>
-    <t>VECBEE</t>
-  </si>
-  <si>
-    <t>-ANS</t>
+    <t>VECBEE-ANS</t>
   </si>
   <si>
     <t>c880</t>
@@ -85,11 +82,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,30 +113,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +136,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -160,9 +151,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,76 +236,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,61 +258,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,19 +414,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,91 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,24 +449,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,7 +471,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,11 +534,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,142 +554,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -702,21 +699,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,23 +1058,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9.2" customWidth="true"/>
     <col min="2" max="2" width="6.3" customWidth="true"/>
-    <col min="3" max="3" width="7" customWidth="true"/>
+    <col min="3" max="3" width="10.7" customWidth="true"/>
     <col min="4" max="4" width="6.3" customWidth="true"/>
-    <col min="5" max="5" width="7" customWidth="true"/>
+    <col min="5" max="5" width="10.7" customWidth="true"/>
     <col min="6" max="6" width="6.3" customWidth="true"/>
-    <col min="7" max="7" width="7" customWidth="true"/>
+    <col min="7" max="7" width="10.7" customWidth="true"/>
     <col min="8" max="8" width="5.8" customWidth="true"/>
-    <col min="9" max="9" width="7" customWidth="true"/>
+    <col min="9" max="9" width="10.7" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="true" spans="1:9">
@@ -1078,447 +1093,424 @@
         <v>3</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="9"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+    <row r="3" customHeight="true" spans="1:9">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="4">
+        <v>0.904</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.883</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.891</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.888</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.942</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.937</v>
+      </c>
+      <c r="H3" s="11">
+        <v>104.971</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0.818741428571429</v>
       </c>
     </row>
     <row r="4" customHeight="true" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.904</v>
+      <c r="B4" s="4">
+        <v>0.83</v>
       </c>
       <c r="C4" s="4">
-        <v>0.883</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.891</v>
+        <v>0.864</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.536</v>
       </c>
       <c r="E4" s="4">
-        <v>0.888</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.942</v>
+        <v>0.567</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.685</v>
       </c>
       <c r="G4" s="4">
-        <v>0.937</v>
-      </c>
-      <c r="H4" s="5">
-        <v>104.971</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.818741428571429</v>
+        <v>0.746</v>
+      </c>
+      <c r="H4" s="11">
+        <v>381.577142857143</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1.237959</v>
       </c>
     </row>
     <row r="5" customHeight="true" spans="1:9">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.864</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.536</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.567</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.685</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0.746</v>
-      </c>
-      <c r="H5" s="5">
-        <v>381.577142857143</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1.237959</v>
+      <c r="B5" s="4">
+        <v>0.797</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.755</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.635</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.613</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.627</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="H5" s="11">
+        <v>529.034714285714</v>
+      </c>
+      <c r="I5" s="12">
+        <v>28.6617285714286</v>
       </c>
     </row>
     <row r="6" customHeight="true" spans="1:9">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.797</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.755</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.635</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.613</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.627</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="H6" s="5">
-        <v>529.034714285714</v>
-      </c>
-      <c r="I6" s="6">
-        <v>28.6617285714286</v>
+      <c r="B6" s="4">
+        <v>0.978</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.867</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.989</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.987</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.933</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.852</v>
+      </c>
+      <c r="H6" s="11">
+        <v>217.102285714286</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1.69024285714286</v>
       </c>
     </row>
     <row r="7" customHeight="true" spans="1:9">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.978</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.867</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.989</v>
+      <c r="B7" s="4">
+        <v>0.982</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.884</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.938</v>
       </c>
       <c r="E7" s="4">
-        <v>0.987</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.933</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.852</v>
-      </c>
-      <c r="H7" s="5">
-        <v>217.102285714286</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1.69024285714286</v>
+        <v>0.95</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.661</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.645</v>
+      </c>
+      <c r="H7" s="11">
+        <v>331.509714285714</v>
+      </c>
+      <c r="I7" s="12">
+        <v>30.4828571428571</v>
       </c>
     </row>
     <row r="8" customHeight="true" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.982</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.884</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.938</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.661</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.645</v>
-      </c>
-      <c r="H8" s="5">
-        <v>331.509714285714</v>
-      </c>
-      <c r="I8" s="6">
-        <v>30.4828571428571</v>
+      <c r="B8" s="4">
+        <v>0.972</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.905</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.911</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.865</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.734</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.715</v>
+      </c>
+      <c r="H8" s="11">
+        <v>727.739285714286</v>
+      </c>
+      <c r="I8" s="12">
+        <v>10.09534</v>
       </c>
     </row>
     <row r="9" customHeight="true" spans="1:9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.972</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.905</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.911</v>
+      <c r="B9" s="4">
+        <v>0.875</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.707</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.758</v>
       </c>
       <c r="E9" s="4">
-        <v>0.865</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.734</v>
+        <v>0.761</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.665</v>
       </c>
       <c r="G9" s="4">
-        <v>0.715</v>
-      </c>
-      <c r="H9" s="5">
-        <v>727.739285714286</v>
-      </c>
-      <c r="I9" s="6">
-        <v>10.09534</v>
+        <v>0.68</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1420.856</v>
+      </c>
+      <c r="I9" s="12">
+        <v>6.982392</v>
       </c>
     </row>
     <row r="10" customHeight="true" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.707</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.758</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.761</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.665</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1420.856</v>
-      </c>
-      <c r="I10" s="6">
-        <v>6.982392</v>
+      <c r="B10" s="4">
+        <v>0.972</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.957</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.873</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.873</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.733</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.727</v>
+      </c>
+      <c r="H10" s="11">
+        <v>67.0784285714286</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0.546715</v>
       </c>
     </row>
     <row r="11" customHeight="true" spans="1:9">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.972</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.957</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.873</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.873</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.733</v>
+      <c r="B11" s="4">
+        <v>0.913</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.899</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.738</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.725</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.831</v>
       </c>
       <c r="G11" s="4">
-        <v>0.727</v>
-      </c>
-      <c r="H11" s="5">
-        <v>67.0784285714286</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.546715</v>
+        <v>0.836</v>
+      </c>
+      <c r="H11" s="11">
+        <v>231.355142857143</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.59999571428571</v>
       </c>
     </row>
     <row r="12" customHeight="true" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.913</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.899</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.738</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.725</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.831</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.836</v>
-      </c>
-      <c r="H12" s="5">
-        <v>231.355142857143</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1.59999571428571</v>
+      <c r="B12" s="4">
+        <v>0.885</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.845</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.794</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.778</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.753</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.789</v>
+      </c>
+      <c r="H12" s="11">
+        <v>405.312571428571</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2.62361571428571</v>
       </c>
     </row>
     <row r="13" customHeight="true" spans="1:9">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.885</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.845</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.794</v>
+      <c r="B13" s="4">
+        <v>0.982</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.806</v>
       </c>
       <c r="E13" s="4">
-        <v>0.778</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.753</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0.789</v>
-      </c>
-      <c r="H13" s="5">
-        <v>405.312571428571</v>
-      </c>
-      <c r="I13" s="6">
-        <v>2.62361571428571</v>
+        <v>0.811</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.829</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.841</v>
+      </c>
+      <c r="H13" s="11">
+        <v>165.425714285714</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0.565704857142857</v>
       </c>
     </row>
     <row r="14" customHeight="true" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.982</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.97</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.806</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.811</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.829</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0.841</v>
-      </c>
-      <c r="H14" s="5">
-        <v>165.425714285714</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.565704857142857</v>
+      <c r="B14" s="4">
+        <v>0.975</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0.936</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.876</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.878</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0.773</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.758</v>
+      </c>
+      <c r="H14" s="11">
+        <v>264.365285714286</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.36494</v>
       </c>
     </row>
     <row r="15" customHeight="true" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.975</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.936</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.876</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.773</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.758</v>
-      </c>
-      <c r="H15" s="5">
-        <v>264.365285714286</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1.36494</v>
-      </c>
-    </row>
-    <row r="16" customHeight="true" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="B15" s="7">
         <v>0.922</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C15" s="8">
         <v>0.873</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D15" s="7">
         <v>0.812</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E15" s="8">
         <v>0.808</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F15" s="7">
         <v>0.764</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G15" s="8">
         <v>0.761</v>
       </c>
-      <c r="H16" s="5">
-        <f>AVERAGE(H4:H15)</f>
+      <c r="H15" s="11">
+        <f>AVERAGE(H3:H14)</f>
         <v>403.860607142857</v>
       </c>
-      <c r="I16" s="6">
-        <f>AVERAGE(I4:I15)</f>
+      <c r="I15" s="12">
+        <f>AVERAGE(I3:I14)</f>
         <v>7.22251935714286</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
